--- a/Han-Han.xlsx
+++ b/Han-Han.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tung\Documents\GitHub\study_korean\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC7B9B2-0FAD-49BE-AE62-851097C5F329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="16620" yWindow="3180" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,319 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="102">
+  <si>
+    <t>교</t>
+  </si>
+  <si>
+    <t>hiệu</t>
+  </si>
+  <si>
+    <t>giao</t>
+  </si>
+  <si>
+    <t>giáo</t>
+  </si>
+  <si>
+    <t>도</t>
+  </si>
+  <si>
+    <t>서</t>
+  </si>
+  <si>
+    <t>관</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đồ </t>
+  </si>
+  <si>
+    <t>quán</t>
+  </si>
+  <si>
+    <t>thư</t>
+  </si>
+  <si>
+    <t>식</t>
+  </si>
+  <si>
+    <t>thực</t>
+  </si>
+  <si>
+    <t>thức</t>
+  </si>
+  <si>
+    <t>đường</t>
+  </si>
+  <si>
+    <t>đương</t>
+  </si>
+  <si>
+    <t>당</t>
+  </si>
+  <si>
+    <t>은</t>
+  </si>
+  <si>
+    <t>행</t>
+  </si>
+  <si>
+    <t>ngân</t>
+  </si>
+  <si>
+    <t>hành</t>
+  </si>
+  <si>
+    <t>hàng</t>
+  </si>
+  <si>
+    <t>hạnh</t>
+  </si>
+  <si>
+    <t>백</t>
+  </si>
+  <si>
+    <t>화</t>
+  </si>
+  <si>
+    <t>점</t>
+  </si>
+  <si>
+    <t>bách</t>
+  </si>
+  <si>
+    <t>bạch</t>
+  </si>
+  <si>
+    <t>hoa</t>
+  </si>
+  <si>
+    <t>hòa</t>
+  </si>
+  <si>
+    <t>hỏa</t>
+  </si>
+  <si>
+    <t>hóa</t>
+  </si>
+  <si>
+    <t>họa</t>
+  </si>
+  <si>
+    <t>điếm</t>
+  </si>
+  <si>
+    <t>điểm</t>
+  </si>
+  <si>
+    <t>sư</t>
+  </si>
+  <si>
+    <t>sử</t>
+  </si>
+  <si>
+    <t>sự</t>
+  </si>
+  <si>
+    <t>tư</t>
+  </si>
+  <si>
+    <t>từ</t>
+  </si>
+  <si>
+    <t>tử</t>
+  </si>
+  <si>
+    <t>tứ</t>
+  </si>
+  <si>
+    <t>tự</t>
+  </si>
+  <si>
+    <t>sĩ</t>
+  </si>
+  <si>
+    <t>tà</t>
+  </si>
+  <si>
+    <t>tạ</t>
+  </si>
+  <si>
+    <t>tả</t>
+  </si>
+  <si>
+    <t>xà</t>
+  </si>
+  <si>
+    <t>xạ</t>
+  </si>
+  <si>
+    <t>xá</t>
+  </si>
+  <si>
+    <t>사</t>
+  </si>
+  <si>
+    <t>무</t>
+  </si>
+  <si>
+    <t>vu</t>
+  </si>
+  <si>
+    <t>vụ</t>
+  </si>
+  <si>
+    <t>võ</t>
+  </si>
+  <si>
+    <t>vô</t>
+  </si>
+  <si>
+    <t>실</t>
+  </si>
+  <si>
+    <t>thất</t>
+  </si>
+  <si>
+    <t>thật</t>
+  </si>
+  <si>
+    <t>강</t>
+  </si>
+  <si>
+    <t>의</t>
+  </si>
+  <si>
+    <t>giảng</t>
+  </si>
+  <si>
+    <t>nghĩa</t>
+  </si>
+  <si>
+    <t>cương</t>
+  </si>
+  <si>
+    <t>cường</t>
+  </si>
+  <si>
+    <t>khang</t>
+  </si>
+  <si>
+    <t>휴</t>
+  </si>
+  <si>
+    <t>게</t>
+  </si>
+  <si>
+    <t>hưu</t>
+  </si>
+  <si>
+    <t>방</t>
+  </si>
+  <si>
+    <t>phương</t>
+  </si>
+  <si>
+    <t>phòng</t>
+  </si>
+  <si>
+    <t>phóng</t>
+  </si>
+  <si>
+    <t>phỏng</t>
+  </si>
+  <si>
+    <t>체</t>
+  </si>
+  <si>
+    <t>육</t>
+  </si>
+  <si>
+    <t>thể</t>
+  </si>
+  <si>
+    <t>dục</t>
+  </si>
+  <si>
+    <t>운</t>
+  </si>
+  <si>
+    <t>동</t>
+  </si>
+  <si>
+    <t>장</t>
+  </si>
+  <si>
+    <t>vận</t>
+  </si>
+  <si>
+    <t>động</t>
+  </si>
+  <si>
+    <t>trường</t>
+  </si>
+  <si>
+    <t>문</t>
+  </si>
+  <si>
+    <t>môn</t>
+  </si>
+  <si>
+    <t>văn</t>
+  </si>
+  <si>
+    <t>vấn</t>
+  </si>
+  <si>
+    <t>kế</t>
+  </si>
+  <si>
+    <t>giới</t>
+  </si>
+  <si>
+    <t>giai</t>
+  </si>
+  <si>
+    <t>전</t>
+  </si>
+  <si>
+    <t>지</t>
+  </si>
+  <si>
+    <t>điển</t>
+  </si>
+  <si>
+    <t>điện</t>
+  </si>
+  <si>
+    <t>thoại</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>chí</t>
+  </si>
+  <si>
+    <t>chỉ</t>
+  </si>
+  <si>
+    <t>tri</t>
+  </si>
+  <si>
+    <t>trì</t>
+  </si>
+  <si>
+    <t>trí</t>
+  </si>
+  <si>
+    <t>địa</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +647,616 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>91</v>
+      </c>
+      <c r="C71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>91</v>
+      </c>
+      <c r="C75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>91</v>
+      </c>
+      <c r="C77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>